--- a/E2_metro_budget.xlsx
+++ b/E2_metro_budget.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sorelle\workspace2\excel\individual-projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sorelle\workspace2\excel\Practice-exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C64B4B-ACAE-4105-9042-9CDAA9960A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDCF451-9D78-448F-A074-E04E68659682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17715" yWindow="5460" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3720" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
     <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
     <sheet name="Answer Key" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Department">metro_budget!$A$2:$A$52</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -404,11 +407,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -759,12 +764,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1122,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1751,38 +1755,38 @@
         <v>-683843.13333333295</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>2764700</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>2615303.8999999901</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>-149396.1</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18">
         <v>2861000</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>2671745.94</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18">
         <v>-189254.05999999901</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18">
         <v>2910600</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18">
         <v>2535637.09</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18">
         <v>-374962.91</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18">
         <f t="shared" si="0"/>
         <v>-237871.02333333297</v>
       </c>
@@ -2579,38 +2583,38 @@
         <v>-1098951.4133333552</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>4593300</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41">
         <v>4409060.2099999897</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41">
         <v>-184239.79</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41">
         <v>5089500</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41">
         <v>4956043.6699999897</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41">
         <v>-133456.33000000101</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41">
         <v>4799900</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41">
         <v>4717822.6500000004</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41">
         <v>-82077.349999997707</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41">
         <f t="shared" si="0"/>
         <v>-133257.82333333293</v>
       </c>
@@ -3030,15 +3034,15 @@
         <v>18</v>
       </c>
       <c r="B56">
-        <f>INDEX($B$2:$K$52,MATCH("Community Education Commission",$A$2:$A$52,0),3)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A56,Department,0),3)</f>
         <v>-36209.629999999903</v>
       </c>
       <c r="C56">
-        <f>INDEX($B$2:$K$52,MATCH("Community Education Commission",$A$2:$A$52,0),6)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A56,Department,0),6)</f>
         <v>-27292.159999999902</v>
       </c>
       <c r="D56">
-        <f>INDEX($B$2:$K$52,MATCH("Community Education Commission",$A$2:$A$52,0),9)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A56,Department,0),9)</f>
         <v>-9181.0800000000108</v>
       </c>
     </row>
@@ -3047,15 +3051,15 @@
         <v>19</v>
       </c>
       <c r="B57">
-        <f>INDEX($B$2:$K$52,MATCH("Community Oversight Board",$A$2:$A$52,0),3)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A57,Department,0),3)</f>
         <v>0</v>
       </c>
       <c r="C57">
-        <f>INDEX($B$2:$K$52,MATCH("Community Oversight Board",$A$2:$A$52,0),6)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A57,Department,0),6)</f>
         <v>0</v>
       </c>
       <c r="D57">
-        <f>INDEX($B$2:$K$52,MATCH("Community Oversight Board",$A$2:$A$52,0),9)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A57,Department,0),9)</f>
         <v>-311228.08999999898</v>
       </c>
     </row>
@@ -3064,15 +3068,15 @@
         <v>26</v>
       </c>
       <c r="B58">
-        <f>INDEX($B$2:$K$52,MATCH("Election Commission",$A$2:$A$52,0),3)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A58,Department,0),3)</f>
         <v>-149396.1</v>
       </c>
       <c r="C58">
-        <f>INDEX($B$2:$K$52,MATCH("Election Commission",$A$2:$A$52,0),6)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A58,Department,0),6)</f>
         <v>-189254.05999999901</v>
       </c>
       <c r="D58">
-        <f>INDEX($B$2:$K$52,MATCH("Election Commission",$A$2:$A$52,0),9)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A58,Department,0),9)</f>
         <v>-374962.91</v>
       </c>
     </row>
@@ -3081,15 +3085,15 @@
         <v>32</v>
       </c>
       <c r="B59">
-        <f>INDEX($B$2:$K$52,MATCH("Historical Commission",$A$2:$A$52,0),3)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A59,Department,0),3)</f>
         <v>-12230.809999999799</v>
       </c>
       <c r="C59">
-        <f>INDEX($B$2:$K$52,MATCH("Historical Commission",$A$2:$A$52,0),6)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A59,Department,0),6)</f>
         <v>-45485.579999999798</v>
       </c>
       <c r="D59">
-        <f>INDEX($B$2:$K$52,MATCH("Historical Commission",$A$2:$A$52,0),9)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A59,Department,0),9)</f>
         <v>-72.879999999888199</v>
       </c>
     </row>
@@ -3098,15 +3102,15 @@
         <v>33</v>
       </c>
       <c r="B60">
-        <f>INDEX($B$2:$K$52,MATCH("Human Relations Commission",$A$2:$A$52,0),3)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A60,Department,0),3)</f>
         <v>-4950.4699999999102</v>
       </c>
       <c r="C60">
-        <f>INDEX($B$2:$K$52,MATCH("Human Relations Commission",$A$2:$A$52,0),6)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A60,Department,0),6)</f>
         <v>-8005.79000000003</v>
       </c>
       <c r="D60">
-        <f>INDEX($B$2:$K$52,MATCH("Human Relations Commission",$A$2:$A$52,0),9)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A60,Department,0),9)</f>
         <v>-1724.8999999999601</v>
       </c>
     </row>
@@ -3115,15 +3119,15 @@
         <v>49</v>
       </c>
       <c r="B61">
-        <f>INDEX($B$2:$K$52,MATCH("Planning Commission",$A$2:$A$52,0),3)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A61,Department,0),3)</f>
         <v>-184239.79</v>
       </c>
       <c r="C61">
-        <f>INDEX($B$2:$K$52,MATCH("Planning Commission",$A$2:$A$52,0),6)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A61,Department,0),6)</f>
         <v>-133456.33000000101</v>
       </c>
       <c r="D61">
-        <f>INDEX($B$2:$K$52,MATCH("Planning Commission",$A$2:$A$52,0),9)</f>
+        <f>INDEX($B$2:$K$52,MATCH(A61,Department,0),9)</f>
         <v>-82077.349999997707</v>
       </c>
     </row>
@@ -3236,7 +3240,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
